--- a/sputnik/personal/ee/159ee.xlsx
+++ b/sputnik/personal/ee/159ee.xlsx
@@ -24,18 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,13 +36,22 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>доплатить</t>
-  </si>
-  <si>
-    <t>доплата</t>
-  </si>
-  <si>
-    <t>доплатить 1.40</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>к доплате</t>
   </si>
 </sst>
 </file>
@@ -59,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,13 +98,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -114,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -137,11 +130,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -154,7 +160,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -167,24 +173,28 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -492,60 +502,68 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F17:F18"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="15">
         <v>43464</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="17">
         <v>130</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -558,6 +576,8 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -579,6 +599,13 @@
       <c r="F4" s="6">
         <f>PRODUCT(D4,E4)</f>
         <v>502.70000000000005</v>
+      </c>
+      <c r="G4" s="18">
+        <f>SUM(F4,F5)</f>
+        <v>717.80000000000007</v>
+      </c>
+      <c r="H4" s="18">
+        <v>618</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -589,111 +616,151 @@
       <c r="C5" s="5">
         <v>160</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <f>SUM(C5,-C3)</f>
         <v>90</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>2.39</v>
       </c>
       <c r="F5" s="6">
         <f>PRODUCT(D5,E5)</f>
         <v>215.10000000000002</v>
       </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43583</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14">
-        <v>-99.8</v>
+        <v>43632</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>400</v>
+      </c>
+      <c r="D6" s="3">
+        <f>SUM(C6,-C4)</f>
+        <v>160</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4.57</v>
+      </c>
+      <c r="F6" s="6">
+        <f>PRODUCT(D6,E6)</f>
+        <v>731.2</v>
+      </c>
+      <c r="G6" s="18">
+        <f>SUM(F6,F7)</f>
+        <v>826.80000000000007</v>
+      </c>
+      <c r="H6" s="18">
+        <v>99.8</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>43632</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>200</v>
+      </c>
+      <c r="D7" s="3">
+        <f>SUM(C7,-C5)</f>
+        <v>40</v>
+      </c>
+      <c r="E7" s="11">
+        <v>2.39</v>
+      </c>
       <c r="F7" s="6">
-        <v>99.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>PRODUCT(D7,E7)</f>
+        <v>95.600000000000009</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18">
+        <v>826.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43632</v>
+        <v>43660</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="5">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="D8" s="3">
-        <f>SUM(C8,-C4)</f>
-        <v>160</v>
+        <f>SUM(C8,-C6)</f>
+        <v>150</v>
       </c>
       <c r="E8" s="8">
-        <v>4.57</v>
-      </c>
-      <c r="F8" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="13">
         <f>PRODUCT(D8,E8)</f>
-        <v>731.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>673.5</v>
+      </c>
+      <c r="G8" s="18">
+        <f>SUM(F8,F9)</f>
+        <v>746.4</v>
+      </c>
+      <c r="H8" s="18">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="5">
-        <v>200</v>
+      <c r="C9" s="14">
+        <v>230</v>
       </c>
       <c r="D9" s="3">
-        <f>SUM(C9,-C5)</f>
-        <v>40</v>
-      </c>
-      <c r="E9" s="12">
-        <v>2.39</v>
-      </c>
-      <c r="F9" s="6">
+        <f>SUM(C9,-C7)</f>
+        <v>30</v>
+      </c>
+      <c r="E9" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="13">
         <f>PRODUCT(D9,E9)</f>
-        <v>95.600000000000009</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>72.900000000000006</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43660</v>
+        <v>43703</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="5">
-        <v>550</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="14">
+        <v>680</v>
+      </c>
+      <c r="D10" s="11">
         <f>SUM(C10,-C8)</f>
-        <v>150</v>
-      </c>
-      <c r="E10" s="8">
+        <v>130</v>
+      </c>
+      <c r="E10" s="12">
         <v>4.49</v>
       </c>
-      <c r="F10" s="14">
-        <f>PRODUCT(D10,E10)</f>
-        <v>673.5</v>
+      <c r="F10" s="13">
+        <f t="shared" ref="F10:F15" si="0">PRODUCT(D10,E10)</f>
+        <v>583.70000000000005</v>
+      </c>
+      <c r="G10" s="18">
+        <f>SUM(F10,F11)</f>
+        <v>753.80000000000007</v>
+      </c>
+      <c r="H10" s="18">
+        <v>753.8</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -701,212 +768,157 @@
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="15">
-        <v>230</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="14">
+        <v>300</v>
+      </c>
+      <c r="D11" s="11">
         <f>SUM(C11,-C9)</f>
-        <v>30</v>
-      </c>
-      <c r="E11" s="12">
+        <v>70</v>
+      </c>
+      <c r="E11" s="11">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F11" s="14">
-        <f>PRODUCT(D11,E11)</f>
-        <v>72.900000000000006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>43703</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="15">
-        <v>680</v>
-      </c>
-      <c r="D13" s="12">
-        <f>SUM(C13,-C10)</f>
-        <v>130</v>
-      </c>
-      <c r="E13" s="13">
-        <v>4.49</v>
-      </c>
-      <c r="F13" s="14">
-        <f t="shared" ref="F13:F18" si="0">PRODUCT(D13,E13)</f>
-        <v>583.70000000000005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="15">
-        <v>300</v>
-      </c>
-      <c r="D14" s="12">
-        <f>SUM(C14,-C11)</f>
-        <v>70</v>
-      </c>
-      <c r="E14" s="12">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F14" s="14">
+      <c r="F11" s="13">
         <f t="shared" si="0"/>
         <v>170.10000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>43732</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C12" s="14">
         <v>850</v>
       </c>
-      <c r="D15" s="12">
-        <f>SUM(C15,-C13)</f>
+      <c r="D12" s="11">
+        <f>SUM(C12,-C10)</f>
         <v>170</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E12" s="12">
         <v>4.49</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F12" s="13">
         <f t="shared" si="0"/>
         <v>763.30000000000007</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3" t="s">
+      <c r="G12" s="18">
+        <f>SUM(F12,F13)</f>
+        <v>836.2</v>
+      </c>
+      <c r="H12" s="18">
+        <v>836.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C13" s="14">
         <v>330</v>
       </c>
-      <c r="D16" s="12">
-        <f>SUM(C16,-C14)</f>
+      <c r="D13" s="11">
+        <f>SUM(C13,-C11)</f>
         <v>30</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E13" s="11">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F13" s="13">
         <f t="shared" si="0"/>
         <v>72.900000000000006</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>43787</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C14" s="14">
         <v>980</v>
       </c>
-      <c r="D17" s="12">
-        <f>SUM(C17,-C15)</f>
+      <c r="D14" s="11">
+        <f>SUM(C14,-C12)</f>
         <v>130</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E14" s="12">
         <v>4.49</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F14" s="13">
         <f t="shared" si="0"/>
         <v>583.70000000000005</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
+      <c r="G14" s="18">
+        <f>SUM(F14,F15)</f>
+        <v>753.80000000000007</v>
+      </c>
+      <c r="H14" s="18">
+        <v>753.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C15" s="14">
         <v>400</v>
       </c>
-      <c r="D18" s="12">
-        <f>SUM(C18,-C16)</f>
+      <c r="D15" s="11">
+        <f>SUM(C15,-C13)</f>
         <v>70</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E15" s="11">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F15" s="13">
         <f t="shared" si="0"/>
         <v>170.10000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="18">
+        <f>SUM(G4:G15)</f>
+        <v>4634.8</v>
+      </c>
+      <c r="H16" s="18">
+        <f>SUM(H4:H15)</f>
+        <v>4633.3999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18">
+        <f>SUM(H16,-G16)</f>
+        <v>-1.4000000000005457</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/159ee.xlsx
+++ b/sputnik/personal/ee/159ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -502,10 +502,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -590,14 +590,14 @@
         <v>240</v>
       </c>
       <c r="D4" s="3">
-        <f>SUM(C4,-C2)</f>
+        <f t="shared" ref="D4:D17" si="0">SUM(C4,-C2)</f>
         <v>110</v>
       </c>
       <c r="E4" s="8">
         <v>4.57</v>
       </c>
       <c r="F4" s="6">
-        <f>PRODUCT(D4,E4)</f>
+        <f t="shared" ref="F4:F9" si="1">PRODUCT(D4,E4)</f>
         <v>502.70000000000005</v>
       </c>
       <c r="G4" s="18">
@@ -617,14 +617,14 @@
         <v>160</v>
       </c>
       <c r="D5" s="11">
-        <f>SUM(C5,-C3)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="E5" s="11">
         <v>2.39</v>
       </c>
       <c r="F5" s="6">
-        <f>PRODUCT(D5,E5)</f>
+        <f t="shared" si="1"/>
         <v>215.10000000000002</v>
       </c>
       <c r="G5" s="18"/>
@@ -641,14 +641,14 @@
         <v>400</v>
       </c>
       <c r="D6" s="3">
-        <f>SUM(C6,-C4)</f>
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
       <c r="E6" s="8">
         <v>4.57</v>
       </c>
       <c r="F6" s="6">
-        <f>PRODUCT(D6,E6)</f>
+        <f t="shared" si="1"/>
         <v>731.2</v>
       </c>
       <c r="G6" s="18">
@@ -668,14 +668,14 @@
         <v>200</v>
       </c>
       <c r="D7" s="3">
-        <f>SUM(C7,-C5)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E7" s="11">
         <v>2.39</v>
       </c>
       <c r="F7" s="6">
-        <f>PRODUCT(D7,E7)</f>
+        <f t="shared" si="1"/>
         <v>95.600000000000009</v>
       </c>
       <c r="G7" s="18"/>
@@ -694,14 +694,14 @@
         <v>550</v>
       </c>
       <c r="D8" s="3">
-        <f>SUM(C8,-C6)</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="E8" s="8">
         <v>4.49</v>
       </c>
       <c r="F8" s="13">
-        <f>PRODUCT(D8,E8)</f>
+        <f t="shared" si="1"/>
         <v>673.5</v>
       </c>
       <c r="G8" s="18">
@@ -721,14 +721,14 @@
         <v>230</v>
       </c>
       <c r="D9" s="3">
-        <f>SUM(C9,-C7)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E9" s="11">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="13">
-        <f>PRODUCT(D9,E9)</f>
+        <f t="shared" si="1"/>
         <v>72.900000000000006</v>
       </c>
       <c r="G9" s="18"/>
@@ -745,14 +745,14 @@
         <v>680</v>
       </c>
       <c r="D10" s="11">
-        <f>SUM(C10,-C8)</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="E10" s="12">
         <v>4.49</v>
       </c>
       <c r="F10" s="13">
-        <f t="shared" ref="F10:F15" si="0">PRODUCT(D10,E10)</f>
+        <f t="shared" ref="F10:F15" si="2">PRODUCT(D10,E10)</f>
         <v>583.70000000000005</v>
       </c>
       <c r="G10" s="18">
@@ -772,14 +772,14 @@
         <v>300</v>
       </c>
       <c r="D11" s="11">
-        <f>SUM(C11,-C9)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="E11" s="11">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>170.10000000000002</v>
       </c>
       <c r="G11" s="18"/>
@@ -796,14 +796,14 @@
         <v>850</v>
       </c>
       <c r="D12" s="11">
-        <f>SUM(C12,-C10)</f>
+        <f t="shared" si="0"/>
         <v>170</v>
       </c>
       <c r="E12" s="12">
         <v>4.49</v>
       </c>
       <c r="F12" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>763.30000000000007</v>
       </c>
       <c r="G12" s="18">
@@ -823,14 +823,14 @@
         <v>330</v>
       </c>
       <c r="D13" s="11">
-        <f>SUM(C13,-C11)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E13" s="11">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>72.900000000000006</v>
       </c>
       <c r="G13" s="18"/>
@@ -847,14 +847,14 @@
         <v>980</v>
       </c>
       <c r="D14" s="11">
-        <f>SUM(C14,-C12)</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="E14" s="12">
         <v>4.49</v>
       </c>
       <c r="F14" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>583.70000000000005</v>
       </c>
       <c r="G14" s="18">
@@ -874,50 +874,152 @@
         <v>400</v>
       </c>
       <c r="D15" s="11">
-        <f>SUM(C15,-C13)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="E15" s="11">
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>170.10000000000002</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="6" t="s">
+      <c r="A16" s="4">
+        <v>43931</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="14">
+        <v>1080</v>
+      </c>
+      <c r="D16" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E16" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="13">
+        <f t="shared" ref="F16:F17" si="3">PRODUCT(D16,E16)</f>
+        <v>449</v>
+      </c>
+      <c r="G16" s="18">
+        <f>SUM(F16,F17)</f>
+        <v>692</v>
+      </c>
+      <c r="H16" s="18">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="14">
+        <v>500</v>
+      </c>
+      <c r="D17" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E17" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="13">
+        <f t="shared" si="3"/>
+        <v>243.00000000000003</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>43951</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="14">
+        <v>1480</v>
+      </c>
+      <c r="D18" s="11">
+        <f t="shared" ref="D18:D19" si="4">SUM(C18,-C16)</f>
+        <v>400</v>
+      </c>
+      <c r="E18" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="13">
+        <f t="shared" ref="F18:F19" si="5">PRODUCT(D18,E18)</f>
+        <v>1796</v>
+      </c>
+      <c r="G18" s="18">
+        <f>SUM(F18,F19)</f>
+        <v>2087.6</v>
+      </c>
+      <c r="H18" s="18">
+        <v>2087.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="14">
+        <v>620</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="E19" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" si="5"/>
+        <v>291.60000000000002</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="18">
-        <f>SUM(G4:G15)</f>
-        <v>4634.8</v>
-      </c>
-      <c r="H16" s="18">
-        <f>SUM(H4:H15)</f>
-        <v>4633.3999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="6" t="s">
+      <c r="G20" s="18">
+        <f>SUM(G4:G19)</f>
+        <v>7414.4</v>
+      </c>
+      <c r="H20" s="18">
+        <f>SUM(H4:H19)</f>
+        <v>7413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18">
-        <f>SUM(H16,-G16)</f>
-        <v>-1.4000000000005457</v>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18">
+        <f>SUM(H20,-G20)</f>
+        <v>-1.3999999999996362</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/159ee.xlsx
+++ b/sputnik/personal/ee/159ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -502,10 +502,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -990,35 +990,86 @@
       <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="6" t="s">
+      <c r="A20" s="4">
+        <v>43990</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="14">
+        <v>1800</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" ref="D20:D21" si="6">SUM(C20,-C18)</f>
+        <v>320</v>
+      </c>
+      <c r="E20" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="F20" s="13">
+        <f t="shared" ref="F20:F21" si="7">PRODUCT(D20,E20)</f>
+        <v>1436.8000000000002</v>
+      </c>
+      <c r="G20" s="18">
+        <f>SUM(F20,F21)</f>
+        <v>1874.2000000000003</v>
+      </c>
+      <c r="H20" s="18">
+        <v>1874.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="14">
+        <v>800</v>
+      </c>
+      <c r="D21" s="11">
+        <f t="shared" si="6"/>
+        <v>180</v>
+      </c>
+      <c r="E21" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" si="7"/>
+        <v>437.40000000000003</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="18">
-        <f>SUM(G4:G19)</f>
-        <v>7414.4</v>
-      </c>
-      <c r="H20" s="18">
-        <f>SUM(H4:H19)</f>
-        <v>7413</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="6" t="s">
+      <c r="G22" s="18">
+        <f>SUM(G4:G21)</f>
+        <v>9288.6</v>
+      </c>
+      <c r="H22" s="18">
+        <f>SUM(H4:H21)</f>
+        <v>9287.2000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18">
-        <f>SUM(H20,-G20)</f>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18">
+        <f>SUM(H22,-G22)</f>
         <v>-1.3999999999996362</v>
       </c>
     </row>

--- a/sputnik/personal/ee/159ee.xlsx
+++ b/sputnik/personal/ee/159ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -502,10 +502,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1041,35 +1041,86 @@
       <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="6" t="s">
+      <c r="A22" s="4">
+        <v>44014</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="14">
+        <v>2100</v>
+      </c>
+      <c r="D22" s="11">
+        <f t="shared" ref="D22:D23" si="8">SUM(C22,-C20)</f>
+        <v>300</v>
+      </c>
+      <c r="E22" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="F22" s="13">
+        <f t="shared" ref="F22:F23" si="9">PRODUCT(D22,E22)</f>
+        <v>1347</v>
+      </c>
+      <c r="G22" s="18">
+        <f>SUM(F22,F23)</f>
+        <v>1468.5</v>
+      </c>
+      <c r="H22" s="18">
+        <v>1468.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="14">
+        <v>850</v>
+      </c>
+      <c r="D23" s="11">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="E23" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F23" s="13">
+        <f t="shared" si="9"/>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G24" s="18">
         <f>SUM(G4:G21)</f>
         <v>9288.6</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H24" s="18">
         <f>SUM(H4:H21)</f>
         <v>9287.2000000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="6" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18">
-        <f>SUM(H22,-G22)</f>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18">
+        <f>SUM(H24,-G24)</f>
         <v>-1.3999999999996362</v>
       </c>
     </row>

--- a/sputnik/personal/ee/159ee.xlsx
+++ b/sputnik/personal/ee/159ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -502,10 +502,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1092,36 +1092,87 @@
       <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="6" t="s">
+      <c r="A24" s="4">
+        <v>44067</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="14">
+        <v>2250</v>
+      </c>
+      <c r="D24" s="11">
+        <f t="shared" ref="D24:D25" si="10">SUM(C24,-C22)</f>
+        <v>150</v>
+      </c>
+      <c r="E24" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="13">
+        <f t="shared" ref="F24:F25" si="11">PRODUCT(D24,E24)</f>
+        <v>706.5</v>
+      </c>
+      <c r="G24" s="18">
+        <f>SUM(F24,F25)</f>
+        <v>834</v>
+      </c>
+      <c r="H24" s="18">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="14">
+        <v>900</v>
+      </c>
+      <c r="D25" s="11">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E25" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="13">
+        <f t="shared" si="11"/>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="18">
-        <f>SUM(G4:G21)</f>
-        <v>9288.6</v>
-      </c>
-      <c r="H24" s="18">
-        <f>SUM(H4:H21)</f>
-        <v>9287.2000000000007</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="6" t="s">
+      <c r="G26" s="18">
+        <f>SUM(G4:G25)</f>
+        <v>11591.1</v>
+      </c>
+      <c r="H26" s="18">
+        <f>SUM(H4:H25)</f>
+        <v>11550.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18">
-        <f>SUM(H24,-G24)</f>
-        <v>-1.3999999999996362</v>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18">
+        <f>SUM(H26,-G26)</f>
+        <v>-40.399999999999636</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/159ee.xlsx
+++ b/sputnik/personal/ee/159ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -502,10 +502,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1143,36 +1143,87 @@
       <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="6" t="s">
+      <c r="A26" s="4">
+        <v>44116</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="14">
+        <v>2380</v>
+      </c>
+      <c r="D26" s="11">
+        <f t="shared" ref="D26:D27" si="12">SUM(C26,-C24)</f>
+        <v>130</v>
+      </c>
+      <c r="E26" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="13">
+        <f t="shared" ref="F26:F27" si="13">PRODUCT(D26,E26)</f>
+        <v>612.29999999999995</v>
+      </c>
+      <c r="G26" s="18">
+        <f>SUM(F26,F27)</f>
+        <v>790.8</v>
+      </c>
+      <c r="H26" s="18">
+        <v>753.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="14">
+        <v>970</v>
+      </c>
+      <c r="D27" s="11">
+        <f t="shared" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="E27" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="13">
+        <f t="shared" si="13"/>
+        <v>178.5</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="18">
-        <f>SUM(G4:G25)</f>
-        <v>11591.1</v>
-      </c>
-      <c r="H26" s="18">
-        <f>SUM(H4:H25)</f>
-        <v>11550.7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="6" t="s">
+      <c r="G28" s="18">
+        <f>SUM(G4:G27)</f>
+        <v>12381.9</v>
+      </c>
+      <c r="H28" s="18">
+        <f>SUM(H4:H27)</f>
+        <v>12304.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18">
-        <f>SUM(H26,-G26)</f>
-        <v>-40.399999999999636</v>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18">
+        <f>SUM(H28,-G28)</f>
+        <v>-77.399999999999636</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/159ee.xlsx
+++ b/sputnik/personal/ee/159ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -759,36 +759,87 @@
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6" t="s">
+      <c r="A12" s="4">
+        <v>44218</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="13">
+        <v>3150</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" ref="D12:D13" si="8">SUM(C12,-C10)</f>
+        <v>150</v>
+      </c>
+      <c r="E12" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" ref="F12:F13" si="9">PRODUCT(D12,E12)</f>
+        <v>706.5</v>
+      </c>
+      <c r="G12" s="14">
+        <f>SUM(F12,F13)</f>
+        <v>1726.5</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1645.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1670</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="E13" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="9"/>
+        <v>1019.9999999999999</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="14">
-        <f>SUM(G2:G11)</f>
-        <v>5310</v>
-      </c>
-      <c r="H12" s="14">
-        <f>SUM(H2:H11)</f>
-        <v>5034.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="6" t="s">
+      <c r="G14" s="14">
+        <f>SUM(G2:G13)</f>
+        <v>7036.5</v>
+      </c>
+      <c r="H14" s="14">
+        <f>SUM(H2:H13)</f>
+        <v>6680</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14">
-        <f>SUM(H12,-G12)</f>
-        <v>-275.5</v>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14">
+        <f>SUM(H14,-G14)</f>
+        <v>-356.5</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/159ee.xlsx
+++ b/sputnik/personal/ee/159ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -810,42 +810,244 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6" t="s">
+      <c r="A14" s="4">
+        <v>44260</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13">
+        <v>3300</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" ref="D14:D15" si="10">SUM(C14,-C12)</f>
+        <v>150</v>
+      </c>
+      <c r="E14" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" ref="F14:F15" si="11">PRODUCT(D14,E14)</f>
+        <v>706.5</v>
+      </c>
+      <c r="G14" s="14">
+        <f>SUM(F14,F15)</f>
+        <v>834</v>
+      </c>
+      <c r="H14" s="14">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1720</v>
+      </c>
+      <c r="D15" s="10">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E15" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="11"/>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>44267</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="13">
+        <v>4625</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" ref="D16:D17" si="12">SUM(C16,-C14)</f>
+        <v>1325</v>
+      </c>
+      <c r="E16" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" ref="F16:F17" si="13">PRODUCT(D16,E16)</f>
+        <v>6240.75</v>
+      </c>
+      <c r="G16" s="14">
+        <f>SUM(F16,F17)</f>
+        <v>7291.35</v>
+      </c>
+      <c r="H16" s="14">
+        <v>6950.41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="13">
+        <v>2132</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="12"/>
+        <v>412</v>
+      </c>
+      <c r="E17" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="13"/>
+        <v>1050.5999999999999</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>44299</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="13">
+        <v>4825</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" ref="D18:D19" si="14">SUM(C18,-C16)</f>
+        <v>200</v>
+      </c>
+      <c r="E18" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" ref="F18:F19" si="15">PRODUCT(D18,E18)</f>
+        <v>942</v>
+      </c>
+      <c r="G18" s="14">
+        <f>SUM(F18,F19)</f>
+        <v>1281.1500000000001</v>
+      </c>
+      <c r="H18" s="14">
+        <v>6950.41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13">
+        <v>2265</v>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" si="14"/>
+        <v>133</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="15"/>
+        <v>339.15</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>44303</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="13">
+        <v>5601</v>
+      </c>
+      <c r="D20" s="10">
+        <f t="shared" ref="D20:D21" si="16">SUM(C20,-C18)</f>
+        <v>776</v>
+      </c>
+      <c r="E20" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" ref="F20:F21" si="17">PRODUCT(D20,E20)</f>
+        <v>3654.96</v>
+      </c>
+      <c r="G20" s="14">
+        <f>SUM(F20,F21)</f>
+        <v>4932.51</v>
+      </c>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13">
+        <v>2766</v>
+      </c>
+      <c r="D21" s="10">
+        <f t="shared" si="16"/>
+        <v>501</v>
+      </c>
+      <c r="E21" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="12">
+        <f t="shared" si="17"/>
+        <v>1277.55</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="14">
-        <f>SUM(G2:G13)</f>
-        <v>7036.5</v>
-      </c>
-      <c r="H14" s="14">
-        <f>SUM(H2:H13)</f>
-        <v>6680</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="6" t="s">
+      <c r="G22" s="14">
+        <f>SUM(G2:G21)</f>
+        <v>21375.510000000002</v>
+      </c>
+      <c r="H22" s="14">
+        <f>SUM(H2:H21)</f>
+        <v>21375.82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14">
-        <f>SUM(H14,-G14)</f>
-        <v>-356.5</v>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14">
+        <f>SUM(H22,-G22)</f>
+        <v>0.30999999999767169</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/159ee.xlsx
+++ b/sputnik/personal/ee/159ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1012,35 +1012,86 @@
       <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="6" t="s">
+      <c r="A22" s="4">
+        <v>44494</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="13">
+        <v>5801</v>
+      </c>
+      <c r="D22" s="10">
+        <f t="shared" ref="D22:D23" si="18">SUM(C22,-C20)</f>
+        <v>200</v>
+      </c>
+      <c r="E22" s="11">
+        <v>4.96</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" ref="F22:F23" si="19">PRODUCT(D22,E22)</f>
+        <v>992</v>
+      </c>
+      <c r="G22" s="14">
+        <f>SUM(F22,F23)</f>
+        <v>992</v>
+      </c>
+      <c r="H22" s="14">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="13">
+        <v>2766</v>
+      </c>
+      <c r="D23" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G24" s="14">
         <f>SUM(G2:G21)</f>
         <v>21375.510000000002</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H24" s="14">
         <f>SUM(H2:H21)</f>
         <v>21375.82</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="6" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14">
-        <f>SUM(H22,-G22)</f>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14">
+        <f>SUM(H24,-G24)</f>
         <v>0.30999999999767169</v>
       </c>
     </row>

--- a/sputnik/personal/ee/159ee.xlsx
+++ b/sputnik/personal/ee/159ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1063,35 +1063,86 @@
       <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="6" t="s">
+      <c r="A24" s="4">
+        <v>44536</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="13">
+        <v>6201</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" ref="D24:D25" si="20">SUM(C24,-C22)</f>
+        <v>400</v>
+      </c>
+      <c r="E24" s="11">
+        <v>4.96</v>
+      </c>
+      <c r="F24" s="12">
+        <f t="shared" ref="F24:F25" si="21">PRODUCT(D24,E24)</f>
+        <v>1984</v>
+      </c>
+      <c r="G24" s="14">
+        <f>SUM(F24,F25)</f>
+        <v>1984</v>
+      </c>
+      <c r="H24" s="14">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="13">
+        <v>2766</v>
+      </c>
+      <c r="D25" s="10">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="14">
-        <f>SUM(G2:G21)</f>
-        <v>21375.510000000002</v>
-      </c>
-      <c r="H24" s="14">
-        <f>SUM(H2:H21)</f>
-        <v>21375.82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="6" t="s">
+      <c r="G26" s="14">
+        <f>SUM(G2:G25)</f>
+        <v>24351.510000000002</v>
+      </c>
+      <c r="H26" s="14">
+        <f>SUM(H2:H25)</f>
+        <v>24351.82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14">
-        <f>SUM(H24,-G24)</f>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14">
+        <f>SUM(H26,-G26)</f>
         <v>0.30999999999767169</v>
       </c>
     </row>
